--- a/Wine_Quality/outputs/train_60_test_40/wq_train_60_test_40_depth_accuracy.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/wq_train_60_test_40_depth_accuracy.xlsx
@@ -458,25 +458,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7810696421700654</v>
+        <v>0.7641400538668719</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7472104655636783</v>
+        <v>0.7656791073489804</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7664486340900346</v>
+        <v>0.7710657945363601</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7791458253174298</v>
+        <v>0.7918430165448249</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.7937668333974606</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7814544055405925</v>
+        <v>0.7945363601385148</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7749134282416313</v>
+        <v>0.7929973066564063</v>
       </c>
     </row>
   </sheetData>

--- a/Wine_Quality/outputs/train_60_test_40/wq_train_60_test_40_depth_accuracy.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/wq_train_60_test_40_depth_accuracy.xlsx
@@ -458,25 +458,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7641400538668719</v>
+        <v>76.41</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7656791073489804</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7710657945363601</v>
+        <v>77.11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7918430165448249</v>
+        <v>79.18000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7937668333974606</v>
+        <v>79.38</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7945363601385148</v>
+        <v>79.45</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7929973066564063</v>
+        <v>79.3</v>
       </c>
     </row>
   </sheetData>
